--- a/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.760402889280257</v>
+        <v>77.760402922989186</v>
       </c>
       <c r="C2">
-        <v>59.464925913993774</v>
+        <v>59.464925909435919</v>
       </c>
       <c r="D2">
-        <v>96.712169967595813</v>
+        <v>96.71216980159727</v>
       </c>
       <c r="E2">
-        <v>62.871528810008527</v>
+        <v>62.871528890975817</v>
       </c>
       <c r="F2">
-        <v>98.787746427366386</v>
+        <v>98.787746443495735</v>
       </c>
       <c r="G2">
-        <v>44.377351098386036</v>
+        <v>44.377351124931074</v>
       </c>
       <c r="H2">
-        <v>88.473975792290105</v>
+        <v>88.473975848619233</v>
       </c>
       <c r="I2">
-        <v>58.542150399543374</v>
+        <v>58.542150410034694</v>
       </c>
       <c r="J2">
-        <v>88.436797923732883</v>
+        <v>88.436797950156574</v>
       </c>
       <c r="K2">
-        <v>79.264254272968088</v>
+        <v>79.264254337449486</v>
       </c>
       <c r="L2">
-        <v>117.942240336799</v>
+        <v>117.94224035086638</v>
       </c>
       <c r="M2">
-        <v>46.041027245480755</v>
+        <v>46.041027287872573</v>
       </c>
       <c r="N2">
-        <v>67.344776239205189</v>
+        <v>67.344776313292996</v>
       </c>
       <c r="O2">
-        <v>37.311984097196024</v>
+        <v>37.31198412568245</v>
       </c>
       <c r="P2">
-        <v>40.130791332821317</v>
+        <v>40.130791318474564</v>
       </c>
       <c r="Q2">
-        <v>36.789134681082572</v>
+        <v>36.789134702408575</v>
       </c>
       <c r="R2">
-        <v>45.407415271843917</v>
+        <v>45.407415285381461</v>
       </c>
       <c r="S2">
-        <v>64.019049266306482</v>
+        <v>64.019049282211398</v>
       </c>
       <c r="T2">
-        <v>62.635159201726353</v>
+        <v>62.635159233692811</v>
       </c>
       <c r="U2">
-        <v>53.506163362254625</v>
+        <v>53.506163407507756</v>
       </c>
       <c r="V2">
-        <v>65.78435389993821</v>
+        <v>65.784353952103999</v>
       </c>
       <c r="W2">
-        <v>40.583953478867492</v>
+        <v>40.583953505057963</v>
       </c>
       <c r="X2">
-        <v>33.226591064253597</v>
+        <v>33.226591063681155</v>
       </c>
       <c r="Y2">
-        <v>38.101254670387767</v>
+        <v>38.101254690068046</v>
       </c>
       <c r="Z2">
-        <v>72.361255273873141</v>
+        <v>72.361255298210352</v>
       </c>
       <c r="AA2">
-        <v>62.013870884439385</v>
+        <v>62.013870900847593</v>
       </c>
       <c r="AB2">
-        <v>61.903021707069307</v>
+        <v>61.903021712579964</v>
       </c>
       <c r="AC2">
-        <v>69.490623925668757</v>
+        <v>69.49062396087524</v>
       </c>
       <c r="AD2">
-        <v>62.959862558796523</v>
+        <v>62.959862578414103</v>
       </c>
       <c r="AE2">
-        <v>74.330555920462189</v>
+        <v>74.330555871018248</v>
       </c>
       <c r="AF2">
-        <v>45.445587139040988</v>
+        <v>45.445587139101455</v>
       </c>
       <c r="AG2">
-        <v>97.973937731422197</v>
+        <v>97.973937789677905</v>
       </c>
       <c r="AH2">
-        <v>61.585586043885542</v>
+        <v>61.585586062191062</v>
       </c>
       <c r="AI2">
-        <v>89.898029078587413</v>
+        <v>89.898029102011122</v>
       </c>
       <c r="AJ2">
-        <v>88.200692369446344</v>
+        <v>88.200692415922177</v>
       </c>
       <c r="AK2">
-        <v>125.43402994181676</v>
+        <v>125.43402996870114</v>
       </c>
       <c r="AL2">
-        <v>56.146457562209967</v>
+        <v>56.146457548355755</v>
       </c>
       <c r="AM2">
-        <v>67.458618022144321</v>
+        <v>67.458618079301345</v>
       </c>
       <c r="AN2">
-        <v>40.905546211596644</v>
+        <v>40.905546271713845</v>
       </c>
       <c r="AO2">
-        <v>34.401035084561784</v>
+        <v>34.401035077386808</v>
       </c>
       <c r="AP2">
-        <v>26.546448903398286</v>
+        <v>26.546448919223973</v>
       </c>
       <c r="AQ2">
-        <v>48.242823015584754</v>
+        <v>48.242823049341752</v>
       </c>
       <c r="AR2">
-        <v>63.397659387854411</v>
+        <v>63.397659385248616</v>
       </c>
       <c r="AS2">
-        <v>78.8548233195189</v>
+        <v>78.854823311467598</v>
       </c>
       <c r="AT2">
-        <v>55.142711430352612</v>
+        <v>55.142711455512611</v>
       </c>
       <c r="AU2">
-        <v>62.532674390220663</v>
+        <v>62.532674412465788</v>
       </c>
       <c r="AV2">
-        <v>55.634167573267739</v>
+        <v>55.634167586493248</v>
       </c>
       <c r="AW2">
-        <v>35.504531321027365</v>
+        <v>35.504531332786307</v>
       </c>
       <c r="AX2">
-        <v>42.67863037388291</v>
+        <v>42.67863030009746</v>
       </c>
       <c r="AY2">
-        <v>56.564114554569365</v>
+        <v>56.564114558367663</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57.68044654315608</v>
+        <v>57.680446526792061</v>
       </c>
       <c r="C3">
-        <v>73.346700774672271</v>
+        <v>73.34670076104905</v>
       </c>
       <c r="D3">
-        <v>56.982170214194269</v>
+        <v>56.982170230275614</v>
       </c>
       <c r="E3">
-        <v>62.396360381943104</v>
+        <v>62.396360391281753</v>
       </c>
       <c r="F3">
-        <v>62.949000726020202</v>
+        <v>62.949000778258224</v>
       </c>
       <c r="G3">
-        <v>47.471386958959421</v>
+        <v>47.471386981288234</v>
       </c>
       <c r="H3">
-        <v>91.789315249528258</v>
+        <v>91.789315287759933</v>
       </c>
       <c r="I3">
-        <v>42.544701902478408</v>
+        <v>42.54470191678125</v>
       </c>
       <c r="J3">
-        <v>90.501952127781692</v>
+        <v>90.501952134359826</v>
       </c>
       <c r="K3">
-        <v>70.733937721744866</v>
+        <v>70.733937757491674</v>
       </c>
       <c r="L3">
-        <v>73.780882455438018</v>
+        <v>73.780882501096286</v>
       </c>
       <c r="M3">
-        <v>48.45541746180853</v>
+        <v>48.455587591423772</v>
       </c>
       <c r="N3">
-        <v>63.376823636007849</v>
+        <v>63.376823674849284</v>
       </c>
       <c r="O3">
-        <v>43.216688849896073</v>
+        <v>43.216688876332171</v>
       </c>
       <c r="P3">
-        <v>36.092312781675616</v>
+        <v>36.092312784206548</v>
       </c>
       <c r="Q3">
-        <v>41.417167427766415</v>
+        <v>41.417167466244088</v>
       </c>
       <c r="R3">
-        <v>55.236951147136232</v>
+        <v>55.236951175552917</v>
       </c>
       <c r="S3">
-        <v>56.998148888372299</v>
+        <v>56.99814890436906</v>
       </c>
       <c r="T3">
-        <v>81.415905580418553</v>
+        <v>81.415905624947044</v>
       </c>
       <c r="U3">
-        <v>71.714865114334799</v>
+        <v>71.714865141822074</v>
       </c>
       <c r="V3">
-        <v>47.357886781601749</v>
+        <v>47.357886801034532</v>
       </c>
       <c r="W3">
-        <v>68.193148243796244</v>
+        <v>68.193148324594716</v>
       </c>
       <c r="X3">
-        <v>26.019055391968429</v>
+        <v>26.019055450288612</v>
       </c>
       <c r="Y3">
-        <v>38.695293100000342</v>
+        <v>38.695293117570976</v>
       </c>
       <c r="Z3">
-        <v>40.533112272305772</v>
+        <v>40.533112275748159</v>
       </c>
       <c r="AA3">
-        <v>54.951681211218038</v>
+        <v>54.951681213846811</v>
       </c>
       <c r="AB3">
-        <v>83.902200534456199</v>
+        <v>83.902200539343255</v>
       </c>
       <c r="AC3">
-        <v>63.111826037201162</v>
+        <v>63.11182607973776</v>
       </c>
       <c r="AD3">
-        <v>74.203140908095392</v>
+        <v>74.203141013755626</v>
       </c>
       <c r="AE3">
-        <v>55.646195160091146</v>
+        <v>55.646195189325283</v>
       </c>
       <c r="AF3">
-        <v>53.366305901561468</v>
+        <v>53.366305908446186</v>
       </c>
       <c r="AG3">
-        <v>96.738571087336922</v>
+        <v>96.738571355771825</v>
       </c>
       <c r="AH3">
-        <v>52.796690624144652</v>
+        <v>52.79669058847896</v>
       </c>
       <c r="AI3">
-        <v>97.072184686021501</v>
+        <v>97.072184772484988</v>
       </c>
       <c r="AJ3">
-        <v>78.893693406501029</v>
+        <v>78.893693414637099</v>
       </c>
       <c r="AK3">
-        <v>113.60258413624095</v>
+        <v>113.60258414774364</v>
       </c>
       <c r="AL3">
-        <v>40.619250183093847</v>
+        <v>40.619250202893539</v>
       </c>
       <c r="AM3">
-        <v>56.885593320393248</v>
+        <v>56.885593354147886</v>
       </c>
       <c r="AN3">
-        <v>54.251121577857198</v>
+        <v>54.251121620335695</v>
       </c>
       <c r="AO3">
-        <v>41.292748170691588</v>
+        <v>41.292748188582593</v>
       </c>
       <c r="AP3">
-        <v>44.084483442984585</v>
+        <v>44.08448347422258</v>
       </c>
       <c r="AQ3">
-        <v>47.447021462704839</v>
+        <v>47.447021460599977</v>
       </c>
       <c r="AR3">
-        <v>58.019097937634577</v>
+        <v>58.019097939681515</v>
       </c>
       <c r="AS3">
-        <v>94.331928941077294</v>
+        <v>94.331928972349004</v>
       </c>
       <c r="AT3">
-        <v>72.667104640660341</v>
+        <v>72.667104629089053</v>
       </c>
       <c r="AU3">
-        <v>62.949270981102202</v>
+        <v>62.949271012775569</v>
       </c>
       <c r="AV3">
-        <v>74.749734408709699</v>
+        <v>74.749734453214629</v>
       </c>
       <c r="AW3">
-        <v>36.689183348776005</v>
+        <v>36.689183427402099</v>
       </c>
       <c r="AX3">
-        <v>46.054438697046763</v>
+        <v>46.054438738146509</v>
       </c>
       <c r="AY3">
-        <v>40.819354384382891</v>
+        <v>40.819354410255123</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>77.760402922989186</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>59.464925909435919</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>96.71216980159727</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>62.871528890975817</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>98.787746443495735</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>44.377351124931074</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>88.473975848619233</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>58.542150410034694</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>88.436797950156574</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>79.264254337449486</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>117.94224035086638</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>46.041027287872573</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>67.344776313292996</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>37.31198412568245</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>40.130791318474564</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>36.789134702408575</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>45.407415285381461</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>64.019049282211398</v>
@@ -588,55 +477,55 @@
         <v>72.361255298210352</v>
       </c>
       <c r="AA2">
-        <v>62.013870900847593</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>61.903021712579964</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>69.49062396087524</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>62.959862578414103</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>74.330555871018248</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>45.445587139101455</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>97.973937789677905</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>61.585586062191062</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>89.898029102011122</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>88.200692415922177</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>125.43402996870114</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>56.146457548355755</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>67.458618079301345</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>40.905546271713845</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>34.401035077386808</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.546448919223973</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>48.242823049341752</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>63.397659385248616</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>57.680446526792061</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>73.34670076104905</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>56.982170230275614</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>62.396360391281753</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>62.949000778258224</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>47.471386981288234</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>91.789315287759933</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>42.54470191678125</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>90.501952134359826</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>70.733937757491674</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>73.780882501096286</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>48.455587591423772</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>63.376823674849284</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>43.216688876332171</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>36.092312784206548</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>41.417167466244088</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>55.236951175552917</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>56.99814890436906</v>
@@ -743,55 +629,55 @@
         <v>40.533112275748159</v>
       </c>
       <c r="AA3">
-        <v>54.951681213846811</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>83.902200539343255</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>63.11182607973776</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>74.203141013755626</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>55.646195189325283</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>53.366305908446186</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>96.738571355771825</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>52.79669058847896</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>97.072184772484988</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>78.893693414637099</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>113.60258414774364</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>40.619250202893539</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>56.885593354147886</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>54.251121620335695</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>41.292748188582593</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>44.08448347422258</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>47.447021460599977</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>58.019097939681515</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.760402889280257</v>
+        <v>37.31198412568245</v>
       </c>
       <c r="C2">
-        <v>59.464925913993774</v>
+        <v>45.407415285381461</v>
       </c>
       <c r="D2">
-        <v>96.712169967595813</v>
+        <v>40.905546271713845</v>
       </c>
       <c r="E2">
-        <v>62.871528810008527</v>
+        <v>48.242823049341752</v>
       </c>
       <c r="F2">
         <v>98.787746427366386</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57.68044654315608</v>
+        <v>43.216688876332171</v>
       </c>
       <c r="C3">
-        <v>73.346700774672271</v>
+        <v>55.236951175552917</v>
       </c>
       <c r="D3">
-        <v>56.982170214194269</v>
+        <v>54.251121620335695</v>
       </c>
       <c r="E3">
-        <v>62.396360381943104</v>
+        <v>47.760437452000765</v>
       </c>
       <c r="F3">
         <v>62.949000726020202</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.760402889280257</v>
+        <v>67.344776313292996</v>
       </c>
       <c r="C2">
-        <v>59.464925913993774</v>
+        <v>37.31198412568245</v>
       </c>
       <c r="D2">
-        <v>96.712169967595813</v>
+        <v>67.458618079301345</v>
       </c>
       <c r="E2">
-        <v>62.871528810008527</v>
+        <v>40.905546271713845</v>
       </c>
       <c r="F2">
         <v>98.787746427366386</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57.68044654315608</v>
+        <v>63.376823674849284</v>
       </c>
       <c r="C3">
-        <v>73.346700774672271</v>
+        <v>43.216688876332171</v>
       </c>
       <c r="D3">
-        <v>56.982170214194269</v>
+        <v>56.885593354147886</v>
       </c>
       <c r="E3">
-        <v>62.396360381943104</v>
+        <v>54.251121620335695</v>
       </c>
       <c r="F3">
         <v>62.949000726020202</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>77.760402922989186</v>
+      </c>
+      <c r="C2">
+        <v>59.464925909435919</v>
+      </c>
+      <c r="D2">
+        <v>96.71216980159727</v>
+      </c>
+      <c r="E2">
+        <v>62.871528890975817</v>
+      </c>
+      <c r="F2">
+        <v>98.787746443495735</v>
+      </c>
+      <c r="G2">
+        <v>44.377351124931074</v>
+      </c>
+      <c r="H2">
+        <v>88.473975848619233</v>
+      </c>
+      <c r="I2">
+        <v>58.542150410034694</v>
+      </c>
+      <c r="J2">
+        <v>88.436797950156574</v>
+      </c>
+      <c r="K2">
+        <v>79.264254337449486</v>
+      </c>
+      <c r="L2">
+        <v>117.94224035086638</v>
+      </c>
+      <c r="M2">
+        <v>46.041027287872573</v>
+      </c>
+      <c r="N2">
         <v>67.344776313292996</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>37.31198412568245</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>40.130791318474564</v>
+      </c>
+      <c r="Q2">
+        <v>36.789134702408575</v>
+      </c>
+      <c r="R2">
+        <v>45.407415285381461</v>
+      </c>
+      <c r="S2">
+        <v>64.019049282211398</v>
+      </c>
+      <c r="T2">
+        <v>62.635159233692811</v>
+      </c>
+      <c r="U2">
+        <v>53.506163407507756</v>
+      </c>
+      <c r="V2">
+        <v>65.784353952103999</v>
+      </c>
+      <c r="W2">
+        <v>40.583953505057963</v>
+      </c>
+      <c r="X2">
+        <v>33.226591063681155</v>
+      </c>
+      <c r="Y2">
+        <v>38.101254690068046</v>
+      </c>
+      <c r="Z2">
+        <v>72.361255298210352</v>
+      </c>
+      <c r="AA2">
+        <v>62.013870900847593</v>
+      </c>
+      <c r="AB2">
+        <v>61.903021712579964</v>
+      </c>
+      <c r="AC2">
+        <v>69.49062396087524</v>
+      </c>
+      <c r="AD2">
+        <v>62.959862578414103</v>
+      </c>
+      <c r="AE2">
+        <v>74.330555871018248</v>
+      </c>
+      <c r="AF2">
+        <v>45.445587139101455</v>
+      </c>
+      <c r="AG2">
+        <v>97.973937789677905</v>
+      </c>
+      <c r="AH2">
+        <v>61.585586062191062</v>
+      </c>
+      <c r="AI2">
+        <v>89.898029102011122</v>
+      </c>
+      <c r="AJ2">
+        <v>88.200692415922177</v>
+      </c>
+      <c r="AK2">
+        <v>125.43402996870114</v>
+      </c>
+      <c r="AL2">
+        <v>56.146457548355755</v>
+      </c>
+      <c r="AM2">
         <v>67.458618079301345</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>40.905546271713845</v>
       </c>
-      <c r="F2">
-        <v>98.787746427366386</v>
-      </c>
-      <c r="G2">
-        <v>44.377351098386036</v>
-      </c>
-      <c r="H2">
-        <v>88.473975792290105</v>
-      </c>
-      <c r="I2">
-        <v>58.542150399543374</v>
-      </c>
-      <c r="J2">
-        <v>88.436797923732883</v>
-      </c>
-      <c r="K2">
-        <v>79.264254272968088</v>
-      </c>
-      <c r="L2">
-        <v>117.942240336799</v>
-      </c>
-      <c r="M2">
-        <v>46.041027245480755</v>
-      </c>
-      <c r="N2">
-        <v>67.344776239205189</v>
-      </c>
-      <c r="O2">
-        <v>37.311984097196024</v>
-      </c>
-      <c r="P2">
-        <v>40.130791332821317</v>
-      </c>
-      <c r="Q2">
-        <v>36.789134681082572</v>
-      </c>
-      <c r="R2">
-        <v>45.407415271843917</v>
-      </c>
-      <c r="S2">
-        <v>64.019049266306482</v>
-      </c>
-      <c r="T2">
-        <v>62.635159201726353</v>
-      </c>
-      <c r="U2">
-        <v>53.506163362254625</v>
-      </c>
-      <c r="V2">
-        <v>65.78435389993821</v>
-      </c>
-      <c r="W2">
-        <v>40.583953478867492</v>
-      </c>
-      <c r="X2">
-        <v>33.226591064253597</v>
-      </c>
-      <c r="Y2">
-        <v>38.101254670387767</v>
-      </c>
-      <c r="Z2">
-        <v>72.361255273873141</v>
-      </c>
-      <c r="AA2">
-        <v>62.013870884439385</v>
-      </c>
-      <c r="AB2">
-        <v>61.903021707069307</v>
-      </c>
-      <c r="AC2">
-        <v>69.490623925668757</v>
-      </c>
-      <c r="AD2">
-        <v>62.959862558796523</v>
-      </c>
-      <c r="AE2">
-        <v>74.330555920462189</v>
-      </c>
-      <c r="AF2">
-        <v>45.445587139040988</v>
-      </c>
-      <c r="AG2">
-        <v>97.973937731422197</v>
-      </c>
-      <c r="AH2">
-        <v>61.585586043885542</v>
-      </c>
-      <c r="AI2">
-        <v>89.898029078587413</v>
-      </c>
-      <c r="AJ2">
-        <v>88.200692369446344</v>
-      </c>
-      <c r="AK2">
-        <v>125.43402994181676</v>
-      </c>
-      <c r="AL2">
-        <v>56.146457562209967</v>
-      </c>
-      <c r="AM2">
-        <v>67.458618022144321</v>
-      </c>
-      <c r="AN2">
-        <v>40.905546211596644</v>
-      </c>
       <c r="AO2">
-        <v>34.401035084561784</v>
+        <v>34.401035077386808</v>
       </c>
       <c r="AP2">
-        <v>26.546448903398286</v>
+        <v>26.546448919223973</v>
       </c>
       <c r="AQ2">
-        <v>48.242823015584754</v>
+        <v>48.242823049341752</v>
       </c>
       <c r="AR2">
-        <v>63.397659387854411</v>
+        <v>63.397659385248616</v>
       </c>
       <c r="AS2">
-        <v>78.8548233195189</v>
+        <v>78.854823311467598</v>
       </c>
       <c r="AT2">
-        <v>55.142711430352612</v>
+        <v>55.142711455512611</v>
       </c>
       <c r="AU2">
-        <v>62.532674390220663</v>
+        <v>62.532674412465788</v>
       </c>
       <c r="AV2">
-        <v>55.634167573267739</v>
+        <v>55.634167586493248</v>
       </c>
       <c r="AW2">
-        <v>35.504531321027365</v>
+        <v>35.504531332786307</v>
       </c>
       <c r="AX2">
-        <v>42.67863037388291</v>
+        <v>42.67863030009746</v>
       </c>
       <c r="AY2">
-        <v>56.564114554569365</v>
+        <v>56.564114558367663</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>57.680446526792061</v>
+      </c>
+      <c r="C3">
+        <v>73.34670076104905</v>
+      </c>
+      <c r="D3">
+        <v>56.982170230275614</v>
+      </c>
+      <c r="E3">
+        <v>62.396360391281753</v>
+      </c>
+      <c r="F3">
+        <v>62.949000778258224</v>
+      </c>
+      <c r="G3">
+        <v>47.471386981288234</v>
+      </c>
+      <c r="H3">
+        <v>91.789315287759933</v>
+      </c>
+      <c r="I3">
+        <v>42.54470191678125</v>
+      </c>
+      <c r="J3">
+        <v>90.501952134359826</v>
+      </c>
+      <c r="K3">
+        <v>70.733937757491674</v>
+      </c>
+      <c r="L3">
+        <v>73.780882501096286</v>
+      </c>
+      <c r="M3">
+        <v>48.455587591423772</v>
+      </c>
+      <c r="N3">
         <v>63.376823674849284</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>43.216688876332171</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>36.092312784206548</v>
+      </c>
+      <c r="Q3">
+        <v>41.417167466244088</v>
+      </c>
+      <c r="R3">
+        <v>55.236951175552917</v>
+      </c>
+      <c r="S3">
+        <v>56.99814890436906</v>
+      </c>
+      <c r="T3">
+        <v>81.415905624947044</v>
+      </c>
+      <c r="U3">
+        <v>71.714865141822074</v>
+      </c>
+      <c r="V3">
+        <v>47.357886801034532</v>
+      </c>
+      <c r="W3">
+        <v>68.196874251701132</v>
+      </c>
+      <c r="X3">
+        <v>26.019055450288612</v>
+      </c>
+      <c r="Y3">
+        <v>38.695293117570976</v>
+      </c>
+      <c r="Z3">
+        <v>40.533112275748159</v>
+      </c>
+      <c r="AA3">
+        <v>54.951681213846811</v>
+      </c>
+      <c r="AB3">
+        <v>83.902200539343255</v>
+      </c>
+      <c r="AC3">
+        <v>63.11182607973776</v>
+      </c>
+      <c r="AD3">
+        <v>74.203141013755626</v>
+      </c>
+      <c r="AE3">
+        <v>55.646195189325283</v>
+      </c>
+      <c r="AF3">
+        <v>53.366305908446186</v>
+      </c>
+      <c r="AG3">
+        <v>96.738571355771825</v>
+      </c>
+      <c r="AH3">
+        <v>52.58568912734664</v>
+      </c>
+      <c r="AI3">
+        <v>97.072184772484988</v>
+      </c>
+      <c r="AJ3">
+        <v>78.893693414637099</v>
+      </c>
+      <c r="AK3">
+        <v>113.60258414774364</v>
+      </c>
+      <c r="AL3">
+        <v>40.619250202893539</v>
+      </c>
+      <c r="AM3">
         <v>56.885593354147886</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>54.251121620335695</v>
       </c>
-      <c r="F3">
-        <v>62.949000726020202</v>
-      </c>
-      <c r="G3">
-        <v>47.471386958959421</v>
-      </c>
-      <c r="H3">
-        <v>91.789315249528258</v>
-      </c>
-      <c r="I3">
-        <v>42.544701902478408</v>
-      </c>
-      <c r="J3">
-        <v>90.501952127781692</v>
-      </c>
-      <c r="K3">
-        <v>70.733937721744866</v>
-      </c>
-      <c r="L3">
-        <v>73.780882455438018</v>
-      </c>
-      <c r="M3">
-        <v>48.45541746180853</v>
-      </c>
-      <c r="N3">
-        <v>63.376823636007849</v>
-      </c>
-      <c r="O3">
-        <v>43.216688849896073</v>
-      </c>
-      <c r="P3">
-        <v>36.092312781675616</v>
-      </c>
-      <c r="Q3">
-        <v>41.417167427766415</v>
-      </c>
-      <c r="R3">
-        <v>55.236951147136232</v>
-      </c>
-      <c r="S3">
-        <v>56.998148888372299</v>
-      </c>
-      <c r="T3">
-        <v>81.415905580418553</v>
-      </c>
-      <c r="U3">
-        <v>71.714865114334799</v>
-      </c>
-      <c r="V3">
-        <v>47.357886781601749</v>
-      </c>
-      <c r="W3">
-        <v>68.196874185800269</v>
-      </c>
-      <c r="X3">
-        <v>26.019055391968429</v>
-      </c>
-      <c r="Y3">
-        <v>38.695293100000342</v>
-      </c>
-      <c r="Z3">
-        <v>40.533112272305772</v>
-      </c>
-      <c r="AA3">
-        <v>54.951681211218038</v>
-      </c>
-      <c r="AB3">
-        <v>83.902200534456199</v>
-      </c>
-      <c r="AC3">
-        <v>63.111826037201162</v>
-      </c>
-      <c r="AD3">
-        <v>74.203140908095392</v>
-      </c>
-      <c r="AE3">
-        <v>55.646195160091146</v>
-      </c>
-      <c r="AF3">
-        <v>53.366305901561468</v>
-      </c>
-      <c r="AG3">
-        <v>96.738571087336922</v>
-      </c>
-      <c r="AH3">
-        <v>52.585689169565882</v>
-      </c>
-      <c r="AI3">
-        <v>97.072184686021501</v>
-      </c>
-      <c r="AJ3">
-        <v>78.893693406501029</v>
-      </c>
-      <c r="AK3">
-        <v>113.60258413624095</v>
-      </c>
-      <c r="AL3">
-        <v>40.619250183093847</v>
-      </c>
-      <c r="AM3">
-        <v>56.885593320393248</v>
-      </c>
-      <c r="AN3">
-        <v>54.251121577857198</v>
-      </c>
       <c r="AO3">
-        <v>41.292748170691588</v>
+        <v>41.292748188582593</v>
       </c>
       <c r="AP3">
-        <v>44.084483442984585</v>
+        <v>44.08448347422258</v>
       </c>
       <c r="AQ3">
-        <v>47.760437508927247</v>
+        <v>47.760437452000765</v>
       </c>
       <c r="AR3">
-        <v>58.019097937634577</v>
+        <v>58.019097939681515</v>
       </c>
       <c r="AS3">
-        <v>94.331928941077294</v>
+        <v>94.331928972349004</v>
       </c>
       <c r="AT3">
-        <v>72.667104640660341</v>
+        <v>72.667104629089053</v>
       </c>
       <c r="AU3">
-        <v>62.949270981102202</v>
+        <v>62.949271012775569</v>
       </c>
       <c r="AV3">
-        <v>74.749734408709699</v>
+        <v>74.749734453214629</v>
       </c>
       <c r="AW3">
-        <v>36.689183348776005</v>
+        <v>36.689183427402099</v>
       </c>
       <c r="AX3">
-        <v>46.054438697046763</v>
+        <v>46.054438738146509</v>
       </c>
       <c r="AY3">
-        <v>40.819354384382891</v>
+        <v>40.819354410255123</v>
       </c>
     </row>
   </sheetData>
